--- a/INTLINE/data/142/STANOR/07972 Employed persons by industry.xlsx
+++ b/INTLINE/data/142/STANOR/07972 Employed persons by industry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>07972: Employed persons (LFS) (1 000 persons), by quarter, industry (SIC2007), contents, sex and age</x:t>
   </x:si>
@@ -199,13 +199,16 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
     <x:t>The figures in the table covers persons aged 15-74 years.</x:t>
   </x:si>
   <x:si>
     <x:t>From 2018, a new estimation method has been applied, the figures have been revised back to 2006. For more information, see separate &lt;a href='https://www.ssb.no/arbeid-og-lonn/artikler-og-publikasjoner/new-estimation-methodology-for-the-norwegian-labour-force-survey'&gt; article &lt;/a&gt;.</x:t>
   </x:si>
   <x:si>
-    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. Thue use of proxy interviewing ceased in 2021. This change seem to have given a break in some variables among young people. See About the statistics for more information.</x:t>
+    <x:t>A major restructuring of the LFS was carried out from January 2021, see &lt;a href='https://www.ssb.no/en/arbeid-og-lonn/sysselsetting/statistikk/arbeidskraftundersokelsen'&gt; About the statistics &lt;/a&gt; for more information. Consequently, the number of persons aged 15-74 was reduced by 26 700 in the new LFS. The restructuring also led to a break in the number of employed persons calculated to 21 900 and a break in the number of unemployed persons calculated to 5 400 (both estimates, the last one not significant). The number of perosn outside the labour force was redused by 54 000. The use of proxy interviewing ceased in 2021. This change seem to have given a break in some variables among young people.</x:t>
   </x:si>
   <x:si>
     <x:t>Updated:</x:t>
@@ -214,7 +217,7 @@
     <x:t>Employed persons:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220127 08:00</x:t>
+    <x:t>20220428 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -676,7 +679,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B113"/>
+  <x:dimension ref="A1:B114"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1158,9 +1161,12 @@
         <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:2">
-      <x:c r="A64" s="4" t="s">
+    <x:row r="63" spans="1:2">
+      <x:c r="A63" s="2" t="s">
         <x:v>61</x:v>
+      </x:c>
+      <x:c r="B63" s="3" t="n">
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2">
@@ -1173,8 +1179,8 @@
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:2">
-      <x:c r="A68" s="0" t="s">
+    <x:row r="67" spans="1:2">
+      <x:c r="A67" s="4" t="s">
         <x:v>64</x:v>
       </x:c>
     </x:row>
@@ -1188,8 +1194,8 @@
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:2">
-      <x:c r="A72" s="0" t="s">
+    <x:row r="71" spans="1:2">
+      <x:c r="A71" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
     </x:row>
@@ -1198,19 +1204,19 @@
         <x:v>68</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:2">
-      <x:c r="A75" s="0" t="s">
+    <x:row r="74" spans="1:2">
+      <x:c r="A74" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:2">
@@ -1223,8 +1229,8 @@
         <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:2">
-      <x:c r="A81" s="0" t="s">
+    <x:row r="80" spans="1:2">
+      <x:c r="A80" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
     </x:row>
@@ -1238,8 +1244,8 @@
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:2">
-      <x:c r="A85" s="0" t="s">
+    <x:row r="84" spans="1:2">
+      <x:c r="A84" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
     </x:row>
@@ -1253,24 +1259,24 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:2">
-      <x:c r="A91" s="0" t="s">
+    <x:row r="88" spans="1:2">
+      <x:c r="A88" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:2">
-      <x:c r="A93" s="0" t="s">
+    <x:row r="92" spans="1:2">
+      <x:c r="A92" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:2">
@@ -1280,31 +1286,31 @@
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:2">
-      <x:c r="A100" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:2">
+      <x:c r="A99" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:2">
       <x:c r="A101" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:2">
       <x:c r="A102" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:2">
-      <x:c r="A109" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:2">
+      <x:c r="A103" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
     </x:row>
@@ -1313,8 +1319,8 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:2">
-      <x:c r="A112" s="0" t="s">
+    <x:row r="111" spans="1:2">
+      <x:c r="A111" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
     </x:row>
@@ -1323,11 +1329,16 @@
         <x:v>89</x:v>
       </x:c>
     </x:row>
+    <x:row r="114" spans="1:2">
+      <x:c r="A114" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A64:B64"/>
     <x:mergeCell ref="A65:B65"/>
     <x:mergeCell ref="A66:B66"/>
+    <x:mergeCell ref="A67:B67"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
